--- a/bookie/etc/클래스설계 및 개발계획.xlsx
+++ b/bookie/etc/클래스설계 및 개발계획.xlsx
@@ -15,90 +15,177 @@
     <x:sheet name="클래스설계" sheetId="1" r:id="rId4"/>
     <x:sheet name="개발계획" sheetId="2" r:id="rId5"/>
     <x:sheet name="패키지정의" sheetId="3" r:id="rId6"/>
-    <x:sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="158">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
+  <x:si>
+    <x:t>User 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 묻고답하기 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 묻고답하기(질문)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>identify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 묻고답하기(답변)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본문 ( HTML )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>repository</x:t>
+  </x:si>
+  <x:si>
+    <x:t>document</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 내 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>config 관련</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qna 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주 : 나혜
+서브 : 도훈</x:t>
+  </x:si>
   <x:si>
     <x:t>질문에 대한 해설 텍스트값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주 : 동근
+서브 : 없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SubjectPattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입/로그인/마이페이지</x:t>
   </x:si>
   <x:si>
     <x:t>주 : 나혜
 서브 : 동근</x:t>
   </x:si>
   <x:si>
-    <x:t>주 : 동근
-서브 : 없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입/로그인/마이페이지</x:t>
-  </x:si>
-  <x:si>
     <x:t>Question 클래스 키값</x:t>
   </x:si>
   <x:si>
-    <x:t>SubjectPattern</x:t>
+    <x:t>QuestionText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionPattern</x:t>
   </x:si>
   <x:si>
     <x:t>주 : 수진
 서브 : 수정</x:t>
   </x:si>
   <x:si>
-    <x:t>주 : 나혜
+    <x:t xml:space="preserve">쉬자..ㅠㅠ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainText ( 지문 )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지문 텍스트 ( HTML )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>answer 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타입 m=중 h=고 e=기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주 : 동근
 서브 : 도훈</x:t>
   </x:si>
   <x:si>
-    <x:t>QuestionPattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 텍스트 ( HTML )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category 클래스 키값</x:t>
+    <x:t>QuestionHistory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주 : 영정
+서브 : 동근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 내 질문/ 답변 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question ( 문제 )</x:t>
   </x:si>
   <x:si>
     <x:t>주 : 도훈
 서브 : 나머지</x:t>
   </x:si>
   <x:si>
-    <x:t>QuestionHistory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주 : 영정
-서브 : 동근</x:t>
-  </x:si>
-  <x:si>
-    <x:t>answer 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MainText ( 지문 )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 내 질문/ 답변 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타입 m=중 h=고 e=기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 등록 / 문제 풀기</x:t>
-  </x:si>
-  <x:si>
     <x:t>주  : 수정
 서브 : 동근</x:t>
   </x:si>
   <x:si>
-    <x:t>주 : 동근
-서브 : 도훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question ( 문제 )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지문 텍스트 ( HTML )</x:t>
+    <x:t>Category 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 등록 / 문제 풀기</x:t>
   </x:si>
   <x:si>
     <x:t>MainText 클래스 키값</x:t>
@@ -108,413 +195,313 @@
 서브 : </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">쉬자..ㅠㅠ
-</x:t>
-  </x:si>
-  <x:si>
     <x:t>* 관리자 페이지(문제목록, 문제수정, 
 카테고리수정, 문제목록)</x:t>
   </x:si>
   <x:si>
-    <x:t>* 묻고답하기 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 묻고답하기(질문)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>identify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>repository</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 묻고답하기(답변)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본문 ( HTML )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qna 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>document</x:t>
-  </x:si>
-  <x:si>
-    <x:t>config 관련</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 내 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자료형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도메인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>web</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변수명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공통</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨트롤러, 커멘드 등 웹 관련</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M = 중학생 H = 고등학생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제에 대한 해설 ( HTML )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User 클래스 키값 (FK)</x:t>
-  </x:si>
-  <x:si>
     <x:t>* 회원가입 / 로그인 
   마이페이지 / 메인가이드</x:t>
   </x:si>
   <x:si>
+    <x:t>MainText 클래스 키값 (FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨트롤러, 커멘드 등 웹 관련</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User 클래스 키값 (FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M = 중학생 H = 고등학생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionText 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category 클래스 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문에디터 HTML값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자료형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>web</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공통</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도메인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변수명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시험</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답</x:t>
+  </x:si>
+  <x:si>
+    <x:t>long</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cateId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qhId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qpId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mtId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학년카테</x:t>
+  </x:si>
+  <x:si>
+    <x:t>level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목카테</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spId</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>char(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qnaId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스 관련</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 문제풀기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 문제추출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB관련</x:t>
+  </x:si>
+  <x:si>
+    <x:t>묻고 답하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패키지명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* DB설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 문제등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>addr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>passwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>config</x:t>
+  </x:si>
+  <x:si>
+    <x:t>domain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>common</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무분배</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세부 패키지</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> QNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 시험</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">패키지 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>qText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qtId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 클래스 키값 (FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SubjectPattern 키값  (FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionHistory 클래스 키값</x:t>
+  </x:si>
+  <x:si>
     <x:t>SubjectPattern 클래스 키값</x:t>
   </x:si>
   <x:si>
-    <x:t>Question 클래스 키값 (FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MainText 클래스 키값 (FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubjectPattern 키값  (FK)</x:t>
+    <x:t>QuestionPattern 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionText 클래스 키값(FK)</x:t>
   </x:si>
   <x:si>
     <x:t>문제를 맞췄는지 안맞췄는지 유무 파악</x:t>
   </x:si>
   <x:si>
-    <x:t>QuestionPattern 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionHistory 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mtId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qhId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>char(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qpId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qnaId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학년카테</x:t>
-  </x:si>
-  <x:si>
-    <x:t>long</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cateId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목카테</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>domain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB관련</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 문제풀기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* DB설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">패키지 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>config</x:t>
-  </x:si>
-  <x:si>
-    <x:t>passwd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지문 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>anId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 문제추출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 문제등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 시험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>묻고 답하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무분배</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>common</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세부 패키지</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> QNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스 관련</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>addr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qtId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문에디터 HTML값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionText 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category 클래스 키값(FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionText 클래스 키값(FK)</x:t>
+    <x:t>문제 텍스트 ( HTML )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>totalText</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="12">
+  <x:fonts count="10">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -568,48 +555,6 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ff9d5cbb"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ff9d5cbb"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="15">
     <x:fill>
@@ -791,7 +736,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="53">
+  <x:cellXfs count="46">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -960,6 +905,32 @@
     <x:xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -1040,32 +1011,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1090,47 +1035,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1397,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:W28"/>
+  <x:dimension ref="B2:W26"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F24" activeCellId="0" sqref="F24:H28"/>
+      <x:selection activeCell="H19" activeCellId="0" sqref="H19:H19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1421,119 +1325,119 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="2:12">
-      <x:c r="B2" s="42" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C2" s="42"/>
-      <x:c r="D2" s="42"/>
-      <x:c r="F2" s="42" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G2" s="42"/>
-      <x:c r="H2" s="42"/>
-      <x:c r="J2" s="42" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K2" s="42"/>
-      <x:c r="L2" s="42"/>
+      <x:c r="B2" s="36" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C2" s="36"/>
+      <x:c r="D2" s="36"/>
+      <x:c r="F2" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G2" s="36"/>
+      <x:c r="H2" s="36"/>
+      <x:c r="J2" s="36" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="K2" s="36"/>
+      <x:c r="L2" s="36"/>
     </x:row>
     <x:row r="3" spans="2:12">
       <x:c r="B3" s="30" t="s">
-        <x:v>81</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C3" s="30" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D3" s="30" t="s">
-        <x:v>58</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F3" s="30" t="s">
-        <x:v>81</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G3" s="30" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H3" s="30" t="s">
-        <x:v>58</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J3" s="30" t="s">
-        <x:v>81</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K3" s="30" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L3" s="30" t="s">
-        <x:v>58</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:23">
       <x:c r="B4" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D4" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F4" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G4" s="6" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H4" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J4" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="K4" s="6" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L4" s="6" t="s">
-        <x:v>101</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="V4" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="W4" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:23">
       <x:c r="B5" s="4" t="s">
-        <x:v>141</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D5" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F5" s="6" t="s">
-        <x:v>150</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G5" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>131</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J5" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K5" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L5" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="V5" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="W5" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:22">
@@ -1541,427 +1445,471 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="F6" s="6" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="G6" s="6" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H6" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="J6" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K6" s="6" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L6" s="6" t="s">
-        <x:v>96</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="V6" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:22">
       <x:c r="B7" s="4" t="s">
-        <x:v>142</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>78</x:v>
-      </x:c>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="F7" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G7" s="36"/>
+      <x:c r="H7" s="36"/>
       <x:c r="J7" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K7" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="L7" s="6" t="s">
-        <x:v>99</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="V7" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:22">
       <x:c r="B8" s="4" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F8" s="30" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G8" s="30" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H8" s="30" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="V8" s="3" t="s">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="C8" s="4" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D8" s="4" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F8" s="42" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G8" s="42"/>
-      <x:c r="H8" s="42"/>
-      <x:c r="V8" s="3" t="s">
-        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:22">
       <x:c r="B9" s="4" t="s">
-        <x:v>139</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F9" s="30" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G9" s="30" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H9" s="30" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="J9" s="43" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="K9" s="42"/>
-      <x:c r="L9" s="42"/>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F9" s="6" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="G9" s="6" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H9" s="6" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="J9" s="37" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="K9" s="36"/>
+      <x:c r="L9" s="36"/>
       <x:c r="V9" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:22">
       <x:c r="B10" s="4" t="s">
-        <x:v>143</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F10" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G10" s="6" t="s">
-        <x:v>113</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H10" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J10" s="30" t="s">
-        <x:v>81</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K10" s="30" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L10" s="30" t="s">
-        <x:v>58</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="V10" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:12">
       <x:c r="B11" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="F11" s="6" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="G11" s="6" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H11" s="6" t="s">
-        <x:v>144</x:v>
-      </x:c>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F11" s="29"/>
+      <x:c r="G11" s="29"/>
+      <x:c r="H11" s="29"/>
       <x:c r="J11" s="6" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K11" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="6:14">
-      <x:c r="F12" s="6" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="G12" s="6" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H12" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
+      <x:c r="F12" s="36" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G12" s="36"/>
+      <x:c r="H12" s="36"/>
       <x:c r="J12" s="6" t="s">
-        <x:v>109</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="K12" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L12" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N12" s="29"/>
     </x:row>
     <x:row r="13" spans="2:12">
-      <x:c r="B13" s="42" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C13" s="42"/>
-      <x:c r="D13" s="42"/>
-      <x:c r="F13" s="4" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G13" s="4" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H13" s="4" t="s">
-        <x:v>88</x:v>
+      <x:c r="B13" s="36" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C13" s="36"/>
+      <x:c r="D13" s="36"/>
+      <x:c r="F13" s="30" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G13" s="30" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H13" s="30" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J13" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K13" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L13" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:12">
       <x:c r="B14" s="30" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C14" s="30" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D14" s="30" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F14" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C14" s="30" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D14" s="30" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F14" s="4" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G14" s="4" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H14" s="4" t="s">
-        <x:v>92</x:v>
+      <x:c r="G14" s="6" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H14" s="6" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J14" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K14" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L14" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:12">
       <x:c r="B15" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F15" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G15" s="6" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="H15" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="H15" s="6" t="s">
+        <x:v>152</x:v>
       </x:c>
       <x:c r="J15" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K15" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L15" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:8">
       <x:c r="B16" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D16" s="4" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F16" s="4" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="D16" s="4" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="F16" s="4" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="G16" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H16" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:12">
       <x:c r="B17" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="J17" s="43" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="K17" s="42"/>
-      <x:c r="L17" s="42"/>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F17" s="6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G17" s="6" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="H17" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J17" s="37" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="K17" s="36"/>
+      <x:c r="L17" s="36"/>
     </x:row>
     <x:row r="18" spans="2:12">
       <x:c r="B18" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F18" s="6" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="G18" s="6" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H18" s="6" t="s">
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J18" s="30" t="s">
-        <x:v>81</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K18" s="30" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="L18" s="30" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="6:12">
+      <x:c r="F19" s="6" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G19" s="6" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H19" s="6" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="L18" s="30" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="10:12">
       <x:c r="J19" s="6" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="K19" s="6" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L19" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:12">
-      <x:c r="B20" s="42" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C20" s="42"/>
-      <x:c r="D20" s="42"/>
+      <x:c r="B20" s="36" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C20" s="36"/>
+      <x:c r="D20" s="36"/>
+      <x:c r="F20" s="4" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="G20" s="4" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H20" s="4" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="J20" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K20" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L20" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:12">
       <x:c r="B21" s="30" t="s">
-        <x:v>81</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C21" s="30" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D21" s="30" t="s">
-        <x:v>58</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J21" s="6" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K21" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:12">
       <x:c r="B22" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>95</x:v>
-      </x:c>
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="F22" s="36" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G22" s="36"/>
+      <x:c r="H22" s="36"/>
       <x:c r="J22" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K22" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L22" s="4" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="2:4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:8">
       <x:c r="B23" s="4" t="s">
-        <x:v>120</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F23" s="30" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G23" s="30" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H23" s="30" t="s">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:8">
       <x:c r="B24" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C24" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D24" s="4" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="F24" s="42" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G24" s="42"/>
-      <x:c r="H24" s="42"/>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F24" s="4" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G24" s="4" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H24" s="4" t="s">
+        <x:v>149</x:v>
+      </x:c>
     </x:row>
     <x:row r="25" spans="6:8">
-      <x:c r="F25" s="30" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G25" s="30" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H25" s="30" t="s">
-        <x:v>58</x:v>
+      <x:c r="F25" s="6" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G25" s="6" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H25" s="6" t="s">
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="6:8">
@@ -1969,47 +1917,26 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="G26" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H26" s="4" t="s">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="6:8">
-      <x:c r="F27" s="6" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="G27" s="6" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="H27" s="6" t="s">
-        <x:v>96</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="6:8">
-      <x:c r="F28" s="4" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="G28" s="4" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="H28" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="9">
+  <x:mergeCells count="10">
     <x:mergeCell ref="B20:D20"/>
     <x:mergeCell ref="F2:H2"/>
-    <x:mergeCell ref="F8:H8"/>
     <x:mergeCell ref="J2:L2"/>
     <x:mergeCell ref="J9:L9"/>
     <x:mergeCell ref="J17:L17"/>
     <x:mergeCell ref="B2:D2"/>
     <x:mergeCell ref="B13:D13"/>
-    <x:mergeCell ref="F24:H24"/>
+    <x:mergeCell ref="F7:H7"/>
+    <x:mergeCell ref="F12:H12"/>
+    <x:mergeCell ref="F22:H22"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2033,16 +1960,16 @@
   <x:sheetData>
     <x:row r="3" spans="2:16" ht="30" customHeight="1">
       <x:c r="B3" s="8" t="s">
-        <x:v>140</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C3" s="5"/>
       <x:c r="D3" s="5"/>
       <x:c r="E3" s="5"/>
       <x:c r="F3" s="5"/>
-      <x:c r="G3" s="36" t="s">
+      <x:c r="G3" s="38" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="H3" s="36"/>
+      <x:c r="H3" s="38"/>
       <x:c r="I3" s="5"/>
       <x:c r="J3" s="5"/>
       <x:c r="K3" s="5"/>
@@ -2051,60 +1978,60 @@
       <x:c r="N3" s="5"/>
       <x:c r="O3" s="5"/>
       <x:c r="P3" s="8" t="s">
-        <x:v>75</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:16">
       <x:c r="B4" s="5"/>
       <x:c r="C4" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G4" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H4" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I4" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J4" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K4" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M4" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N4" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O4" s="8" t="s">
-        <x:v>42</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="P4" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:17">
       <x:c r="B5" s="5" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C5" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D5" s="5"/>
       <x:c r="E5" s="5"/>
@@ -2123,18 +2050,18 @@
     </x:row>
     <x:row r="6" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B6" s="15" t="s">
-        <x:v>94</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C6" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D6" s="20"/>
       <x:c r="E6" s="17"/>
       <x:c r="F6" s="17"/>
-      <x:c r="G6" s="37" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H6" s="38"/>
+      <x:c r="G6" s="39" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H6" s="40"/>
       <x:c r="I6" s="17"/>
       <x:c r="J6" s="17"/>
       <x:c r="K6" s="17"/>
@@ -2142,23 +2069,23 @@
       <x:c r="M6" s="17"/>
       <x:c r="N6" s="17"/>
       <x:c r="O6" s="17"/>
-      <x:c r="P6" s="39" t="s">
-        <x:v>85</x:v>
+      <x:c r="P6" s="41" t="s">
+        <x:v>96</x:v>
       </x:c>
       <x:c r="Q6" s="1"/>
     </x:row>
     <x:row r="7" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B7" s="5" t="s">
-        <x:v>136</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D7" s="13"/>
       <x:c r="E7" s="13"/>
       <x:c r="F7" s="13"/>
-      <x:c r="G7" s="38"/>
-      <x:c r="H7" s="38"/>
+      <x:c r="G7" s="40"/>
+      <x:c r="H7" s="40"/>
       <x:c r="I7" s="13"/>
       <x:c r="J7" s="13"/>
       <x:c r="K7" s="17"/>
@@ -2166,21 +2093,21 @@
       <x:c r="M7" s="17"/>
       <x:c r="N7" s="17"/>
       <x:c r="O7" s="17"/>
-      <x:c r="P7" s="40"/>
+      <x:c r="P7" s="42"/>
       <x:c r="Q7" s="1"/>
     </x:row>
     <x:row r="8" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B8" s="5" t="s">
-        <x:v>124</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D8" s="12"/>
       <x:c r="E8" s="12"/>
       <x:c r="F8" s="12"/>
-      <x:c r="G8" s="38"/>
-      <x:c r="H8" s="38"/>
+      <x:c r="G8" s="40"/>
+      <x:c r="H8" s="40"/>
       <x:c r="I8" s="12"/>
       <x:c r="J8" s="12"/>
       <x:c r="K8" s="17"/>
@@ -2188,21 +2115,21 @@
       <x:c r="M8" s="17"/>
       <x:c r="N8" s="17"/>
       <x:c r="O8" s="17"/>
-      <x:c r="P8" s="40"/>
+      <x:c r="P8" s="42"/>
       <x:c r="Q8" s="1"/>
     </x:row>
     <x:row r="9" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B9" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D9" s="11"/>
       <x:c r="E9" s="11"/>
       <x:c r="F9" s="11"/>
-      <x:c r="G9" s="38"/>
-      <x:c r="H9" s="38"/>
+      <x:c r="G9" s="40"/>
+      <x:c r="H9" s="40"/>
       <x:c r="I9" s="11"/>
       <x:c r="J9" s="11"/>
       <x:c r="K9" s="17"/>
@@ -2210,21 +2137,21 @@
       <x:c r="M9" s="17"/>
       <x:c r="N9" s="17"/>
       <x:c r="O9" s="17"/>
-      <x:c r="P9" s="40"/>
+      <x:c r="P9" s="42"/>
       <x:c r="Q9" s="1"/>
     </x:row>
     <x:row r="10" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B10" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="12"/>
       <x:c r="E10" s="12"/>
       <x:c r="F10" s="12"/>
-      <x:c r="G10" s="38"/>
-      <x:c r="H10" s="38"/>
+      <x:c r="G10" s="40"/>
+      <x:c r="H10" s="40"/>
       <x:c r="I10" s="12"/>
       <x:c r="J10" s="12"/>
       <x:c r="K10" s="17"/>
@@ -2232,21 +2159,21 @@
       <x:c r="M10" s="17"/>
       <x:c r="N10" s="17"/>
       <x:c r="O10" s="17"/>
-      <x:c r="P10" s="40"/>
+      <x:c r="P10" s="42"/>
       <x:c r="Q10" s="1"/>
     </x:row>
     <x:row r="11" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B11" s="5" t="s">
-        <x:v>137</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C11" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D11" s="17"/>
       <x:c r="E11" s="14"/>
       <x:c r="F11" s="14"/>
-      <x:c r="G11" s="38"/>
-      <x:c r="H11" s="38"/>
+      <x:c r="G11" s="40"/>
+      <x:c r="H11" s="40"/>
       <x:c r="I11" s="14"/>
       <x:c r="J11" s="14"/>
       <x:c r="K11" s="14"/>
@@ -2254,15 +2181,15 @@
       <x:c r="M11" s="14"/>
       <x:c r="N11" s="17"/>
       <x:c r="O11" s="17"/>
-      <x:c r="P11" s="40"/>
+      <x:c r="P11" s="42"/>
       <x:c r="Q11" s="1"/>
     </x:row>
     <x:row r="12" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B12" s="5" t="s">
-        <x:v>135</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C12" s="31" t="s">
-        <x:v>11</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D12" s="32"/>
       <x:c r="E12" s="32"/>
@@ -2276,15 +2203,15 @@
       <x:c r="M12" s="32"/>
       <x:c r="N12" s="32"/>
       <x:c r="O12" s="32"/>
-      <x:c r="P12" s="40"/>
+      <x:c r="P12" s="42"/>
       <x:c r="Q12" s="1"/>
     </x:row>
     <x:row r="13" spans="2:16" s="1" customFormat="1" ht="45.950000000000003" customHeight="1">
       <x:c r="B13" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C13" s="16" t="s">
-        <x:v>6</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D13" s="17"/>
       <x:c r="E13" s="33"/>
@@ -2298,14 +2225,14 @@
       <x:c r="M13" s="17"/>
       <x:c r="N13" s="17"/>
       <x:c r="O13" s="17"/>
-      <x:c r="P13" s="40"/>
+      <x:c r="P13" s="42"/>
     </x:row>
     <x:row r="14" spans="2:16" s="1" customFormat="1" ht="45.950000000000003" customHeight="1">
       <x:c r="B14" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C14" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D14" s="17"/>
       <x:c r="E14" s="17"/>
@@ -2319,14 +2246,14 @@
       <x:c r="M14" s="34"/>
       <x:c r="N14" s="34"/>
       <x:c r="O14" s="34"/>
-      <x:c r="P14" s="40"/>
+      <x:c r="P14" s="42"/>
     </x:row>
     <x:row r="15" spans="2:16" s="1" customFormat="1" ht="45.950000000000003" customHeight="1">
       <x:c r="B15" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C15" s="16" t="s">
-        <x:v>11</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D15" s="17"/>
       <x:c r="E15" s="17"/>
@@ -2340,14 +2267,14 @@
       <x:c r="M15" s="17"/>
       <x:c r="N15" s="17"/>
       <x:c r="O15" s="17"/>
-      <x:c r="P15" s="40"/>
+      <x:c r="P15" s="42"/>
     </x:row>
     <x:row r="16" spans="2:16" s="1" customFormat="1" ht="45.950000000000003" customHeight="1">
       <x:c r="B16" s="15" t="s">
-        <x:v>26</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D16" s="17"/>
       <x:c r="E16" s="17"/>
@@ -2361,7 +2288,7 @@
       <x:c r="M16" s="35"/>
       <x:c r="N16" s="35"/>
       <x:c r="O16" s="35"/>
-      <x:c r="P16" s="41"/>
+      <x:c r="P16" s="43"/>
     </x:row>
     <x:row r="17" spans="15:17">
       <x:c r="O17" s="1"/>
@@ -2374,7 +2301,7 @@
     <x:mergeCell ref="G6:H11"/>
     <x:mergeCell ref="P6:P16"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2397,110 +2324,110 @@
     <x:row r="3" ht="2.25" customHeight="1"/>
     <x:row r="4" spans="2:3" ht="25.5" customHeight="1">
       <x:c r="B4" s="44" t="s">
-        <x:v>128</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C4" s="44"/>
     </x:row>
     <x:row r="5" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B5" s="25" t="s">
-        <x:v>126</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C5" s="25" t="s">
-        <x:v>82</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B6" s="27" t="s">
-        <x:v>145</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C6" s="28" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B7" s="27" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C7" s="28" t="s">
-        <x:v>52</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B8" s="24" t="s">
-        <x:v>125</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C8" s="23" t="s">
-        <x:v>3</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B9" s="24" t="s">
-        <x:v>50</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C9" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B10" s="24" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C10" s="23" t="s">
-        <x:v>138</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B11" s="24" t="s">
-        <x:v>132</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C11" s="23" t="s">
-        <x:v>80</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:3" ht="25.5" customHeight="1">
       <x:c r="B13" s="45" t="s">
-        <x:v>146</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C13" s="45"/>
     </x:row>
     <x:row r="14" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B14" s="26" t="s">
-        <x:v>126</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C14" s="22" t="s">
-        <x:v>82</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B15" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B16" s="24" t="s">
-        <x:v>46</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B17" s="24" t="s">
-        <x:v>148</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>149</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B18" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2508,169 +2435,7 @@
     <x:mergeCell ref="B4:C4"/>
     <x:mergeCell ref="B13:C13"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet4"/>
-  <x:dimension ref="B3:E20"/>
-  <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J14" activeCellId="0" sqref="J14:J15"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="20.649999999999999"/>
-  <x:cols>
-    <x:col min="2" max="2" width="16.95703125" style="46" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.2265625" style="46" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="33.28125" style="46" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="3" spans="2:4">
-      <x:c r="B3" s="47" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C3" s="47"/>
-      <x:c r="D3" s="47"/>
-    </x:row>
-    <x:row r="4" spans="2:4" ht="25" customHeight="1">
-      <x:c r="B4" s="48" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C4" s="48" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D4" s="48" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:4" ht="25" customHeight="1">
-      <x:c r="B5" s="49" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="C5" s="49" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D5" s="49" t="s">
-        <x:v>154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:4" ht="25" customHeight="1">
-      <x:c r="B6" s="49" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="C6" s="49" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D6" s="49" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" ht="25" customHeight="1"/>
-    <x:row r="8" ht="25" customHeight="1"/>
-    <x:row r="9" ht="25" customHeight="1"/>
-    <x:row r="10" spans="2:5" ht="25" customHeight="1">
-      <x:c r="B10" s="52"/>
-      <x:c r="C10" s="52"/>
-      <x:c r="D10" s="52"/>
-      <x:c r="E10" s="51"/>
-    </x:row>
-    <x:row r="11" ht="25" customHeight="1"/>
-    <x:row r="13" spans="2:4">
-      <x:c r="B13" s="47" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C13" s="47"/>
-      <x:c r="D13" s="47"/>
-    </x:row>
-    <x:row r="14" spans="2:4">
-      <x:c r="B14" s="48" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C14" s="48" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D14" s="48" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="2:4">
-      <x:c r="B15" s="49" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C15" s="49" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D15" s="49" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="2:5">
-      <x:c r="B16" s="49" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C16" s="49" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D16" s="49" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="E16" s="51"/>
-    </x:row>
-    <x:row r="17" spans="2:4">
-      <x:c r="B17" s="50" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C17" s="50" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D17" s="50" t="s">
-        <x:v>88</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:4" customFormat="1">
-      <x:c r="B18" s="49" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="49" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D18" s="49" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:4">
-      <x:c r="B19" s="49" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="C19" s="49" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D19" s="49" t="s">
-        <x:v>157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:4">
-      <x:c r="B20" s="50" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C20" s="50" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D20" s="50" t="s">
-        <x:v>156</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1048575" ht="16.399999999999999"/>
-  </x:sheetData>
-  <x:mergeCells count="2">
-    <x:mergeCell ref="B13:D13"/>
-    <x:mergeCell ref="B3:D3"/>
-  </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
 </file>
--- a/bookie/etc/클래스설계 및 개발계획.xlsx
+++ b/bookie/etc/클래스설계 및 개발계획.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="8550"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="클래스설계" sheetId="1" r:id="rId4"/>
@@ -21,34 +21,172 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="156">
-  <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="160">
   <x:si>
     <x:t>* 회원가입 / 로그인 
   마이페이지 / 메인가이드</x:t>
   </x:si>
   <x:si>
-    <x:t>QuestionText 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User 클래스 키값 (FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨트롤러, 커멘드 등 웹 관련</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M = 중학생 H = 고등학생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category 클래스 키값(FK)</x:t>
+    <x:t>카테고리 객체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 묻고답하기(질문)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bigPattern</x:t>
   </x:si>
   <x:si>
     <x:t>* 관리자 페이지(문제목록, 문제수정, 
 카테고리수정, 문제목록)</x:t>
   </x:si>
   <x:si>
+    <x:t>22.08.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M = 중학생 H = 고등학생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionText 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category 클래스 키값(FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨트롤러, 커멘드 등 웹 관련</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User 클래스 키값 (FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>config 관련</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qna 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 내 정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>totalText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자료형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>web</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공통</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시험</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변수명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도메인</x:t>
+  </x:si>
+  <x:si>
     <x:t>질문에디터 HTML값</x:t>
   </x:si>
   <x:si>
@@ -64,326 +202,209 @@
     <x:t>22.08.18</x:t>
   </x:si>
   <x:si>
+    <x:t>User 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 묻고답하기(답변)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본문 ( HTML )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.15</x:t>
+  </x:si>
+  <x:si>
     <x:t>22.08.19</x:t>
   </x:si>
   <x:si>
+    <x:t>22.08.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>identify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>repository</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.08.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 묻고답하기 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>document</x:t>
+  </x:si>
+  <x:si>
     <x:t>22.08.21</x:t>
   </x:si>
   <x:si>
-    <x:t>22.08.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 묻고답하기 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>repository</x:t>
-  </x:si>
-  <x:si>
-    <x:t>question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본문 ( HTML )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>identify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>document</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 묻고답하기(답변)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 묻고답하기(질문)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.08.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 내 정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>config 관련</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qna 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>totalText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>web</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자료형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공통</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도메인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변수명</x:t>
+    <x:t>지문 텍스트 ( HTML )</x:t>
   </x:si>
   <x:si>
     <x:t>질문에 대한 해설 텍스트값</x:t>
   </x:si>
   <x:si>
+    <x:t>SubjectPattern</x:t>
+  </x:si>
+  <x:si>
     <x:t>문제 텍스트 ( HTML )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주 : 동근
+서브 : 없음</x:t>
   </x:si>
   <x:si>
     <x:t>주 : 나혜
 서브 : 도훈</x:t>
   </x:si>
   <x:si>
-    <x:t>SubjectPattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주 : 동근
-서브 : 없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지문 텍스트 ( HTML )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입/로그인/마이페이지</x:t>
+    <x:t>Question 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question ( 문제 )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주  : 수정
+서브 : 동근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainText 클래스 키값</x:t>
   </x:si>
   <x:si>
     <x:t>QuestionPattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">쉬자..ㅠㅠ
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주 : 수진
+서브 : 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">주 : 수진/도훈
+서브 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>주 : 나혜
+서브 : 동근</x:t>
   </x:si>
   <x:si>
     <x:t>주 : 도훈
 서브 : 나머지</x:t>
   </x:si>
   <x:si>
-    <x:t>Category 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">쉬자..ㅠㅠ
-</x:t>
+    <x:t>answer 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입/로그인/마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타입 m=중 h=고 e=기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 등록 / 문제 풀기</x:t>
   </x:si>
   <x:si>
     <x:t>QuestionHistory</x:t>
   </x:si>
   <x:si>
-    <x:t>문제 등록 / 문제 풀기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주 : 수진
-서브 : 수정</x:t>
+    <x:t>* 내 질문/ 답변 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainText ( 지문 )</x:t>
   </x:si>
   <x:si>
     <x:t>주 : 동근
 서브 : 도훈</x:t>
   </x:si>
   <x:si>
-    <x:t>answer 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question ( 문제 )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타입 m=중 h=고 e=기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주 : 나혜
-서브 : 동근</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 내 질문/ 답변 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주  : 수정
-서브 : 동근</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MainText 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">주 : 수진/도훈
-서브 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MainText ( 지문 )</x:t>
-  </x:si>
-  <x:si>
     <x:t>주 : 영정
 서브 : 동근</x:t>
   </x:si>
   <x:si>
+    <x:t>qnaId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>long</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학년카테</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qpId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
     <x:t>grade</x:t>
   </x:si>
   <x:si>
     <x:t>User</x:t>
   </x:si>
   <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
     <x:t>qhId</x:t>
   </x:si>
   <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목카테</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>answer</x:t>
+  </x:si>
+  <x:si>
     <x:t>subject</x:t>
   </x:si>
   <x:si>
+    <x:t>mtId</x:t>
+  </x:si>
+  <x:si>
     <x:t>서비스 관련</x:t>
   </x:si>
   <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mtId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목카테</x:t>
-  </x:si>
-  <x:si>
     <x:t>spId</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학년카테</x:t>
-  </x:si>
-  <x:si>
-    <x:t>answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qnaId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qpId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>long</x:t>
+    <x:t>config</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무분배</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cateId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qtId</x:t>
   </x:si>
   <x:si>
     <x:t>level</x:t>
@@ -392,115 +413,106 @@
     <x:t>char(1)</x:t>
   </x:si>
   <x:si>
-    <x:t>cateId</x:t>
+    <x:t>common</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* DB설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>묻고 답하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 문제추출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>addr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 문제등록</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> QNA</x:t>
   </x:si>
   <x:si>
-    <x:t>test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>common</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qtId</x:t>
-  </x:si>
-  <x:si>
     <x:t>userId</x:t>
   </x:si>
   <x:si>
+    <x:t>* 문제풀기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 시험</x:t>
+  </x:si>
+  <x:si>
+    <x:t>service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
     <x:t>domain</x:t>
   </x:si>
   <x:si>
-    <x:t>* DB설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 문제풀기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 시험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>묻고 답하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 문제추출</x:t>
+    <x:t>user</x:t>
   </x:si>
   <x:si>
     <x:t>DB관련</x:t>
   </x:si>
   <x:si>
-    <x:t>* 문제등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>addr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user</x:t>
+    <x:t xml:space="preserve">패키지 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>qText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패키지명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>passwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anId</x:t>
   </x:si>
   <x:si>
     <x:t>세부 패키지</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">패키지 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>qText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>passwd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>anId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>config</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무분배</x:t>
+    <x:t>문제를 맞췄는지 안맞췄는지 유무 파악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SubjectPattern 키값  (FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question 클래스 키값 (FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SubjectPattern 클래스 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionText 클래스 키값(FK)</x:t>
   </x:si>
   <x:si>
     <x:t>MainText 클래스 키값 (FK)</x:t>
   </x:si>
   <x:si>
-    <x:t>문제를 맞췄는지 안맞췄는지 유무 파악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubjectPattern 클래스 키값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubjectPattern 키값  (FK)</x:t>
-  </x:si>
-  <x:si>
     <x:t>QuestionPattern 클래스 키값</x:t>
   </x:si>
   <x:si>
-    <x:t>Question 클래스 키값 (FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionText 클래스 키값(FK)</x:t>
-  </x:si>
-  <x:si>
     <x:t>QuestionHistory 클래스 키값</x:t>
   </x:si>
   <x:si>
-    <x:t>문제 제목</x:t>
+    <x:t>category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>midPattern</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -742,7 +754,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="46">
+  <x:cellXfs count="47">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1041,6 +1053,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1309,15 +1324,15 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:W27"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H15" activeCellId="0" sqref="H15:H15"/>
+    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D27" activeCellId="0" sqref="D27:D27"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="1.75" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="9" style="3"/>
-    <x:col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="7.5234375" style="3" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="25.125" style="3" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="1.75" style="3" customWidth="1"/>
     <x:col min="6" max="6" width="9.125" style="3" bestFit="1" customWidth="1"/>
@@ -1332,7 +1347,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:12">
       <x:c r="B2" s="36" t="s">
-        <x:v>101</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C2" s="36"/>
       <x:c r="D2" s="36"/>
@@ -1342,210 +1357,210 @@
       <x:c r="G2" s="36"/>
       <x:c r="H2" s="36"/>
       <x:c r="J2" s="36" t="s">
-        <x:v>84</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K2" s="36"/>
       <x:c r="L2" s="36"/>
     </x:row>
     <x:row r="3" spans="2:12">
       <x:c r="B3" s="30" t="s">
-        <x:v>72</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C3" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D3" s="30" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F3" s="30" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="F3" s="30" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="G3" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H3" s="30" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J3" s="30" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="J3" s="30" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="K3" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L3" s="30" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:23">
       <x:c r="B4" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D4" s="4" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F4" s="6" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="D4" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F4" s="6" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="G4" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H4" s="6" t="s">
-        <x:v>95</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J4" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K4" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L4" s="6" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="V4" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="W4" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:23">
       <x:c r="B5" s="4" t="s">
-        <x:v>124</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D5" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F5" s="6" t="s">
-        <x:v>113</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G5" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="J5" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K5" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L5" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="V5" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="W5" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:22">
       <x:c r="B6" s="4" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J6" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K6" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L6" s="6" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="V6" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:22">
       <x:c r="B7" s="4" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F7" s="36" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G7" s="36"/>
       <x:c r="H7" s="36"/>
       <x:c r="J7" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="K7" s="6" t="s">
-        <x:v>118</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="L7" s="6" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="V7" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:22">
       <x:c r="B8" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F8" s="30" t="s">
-        <x:v>72</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G8" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="30" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="V8" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:22">
       <x:c r="B9" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F9" s="6" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="G9" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H9" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J9" s="37" t="s">
-        <x:v>120</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K9" s="36"/>
       <x:c r="L9" s="36"/>
       <x:c r="V9" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:22">
@@ -1553,122 +1568,122 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F10" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H10" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J10" s="30" t="s">
-        <x:v>72</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K10" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L10" s="30" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="V10" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:12">
       <x:c r="B11" s="4" t="s">
-        <x:v>135</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F11" s="29"/>
       <x:c r="G11" s="29"/>
       <x:c r="H11" s="29"/>
       <x:c r="J11" s="6" t="s">
-        <x:v>114</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K11" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="6:14">
       <x:c r="F12" s="36" t="s">
-        <x:v>89</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G12" s="36"/>
       <x:c r="H12" s="36"/>
       <x:c r="J12" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="K12" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L12" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N12" s="29"/>
     </x:row>
     <x:row r="13" spans="2:12">
       <x:c r="B13" s="36" t="s">
-        <x:v>10</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C13" s="36"/>
       <x:c r="D13" s="36"/>
       <x:c r="F13" s="30" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G13" s="30" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H13" s="30" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J13" s="6" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="G13" s="30" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H13" s="30" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J13" s="6" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="K13" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L13" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:12">
       <x:c r="B14" s="30" t="s">
-        <x:v>72</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C14" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D14" s="30" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F14" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G14" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H14" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J14" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="K14" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L14" s="4" t="s">
         <x:v>82</x:v>
@@ -1676,105 +1691,105 @@
     </x:row>
     <x:row r="15" spans="2:12">
       <x:c r="B15" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="F15" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G15" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H15" s="6" t="s">
-        <x:v>155</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J15" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K15" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L15" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:8">
       <x:c r="B16" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F16" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G16" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H16" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:12">
       <x:c r="B17" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F17" s="4" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G17" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H17" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J17" s="37" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="K17" s="36"/>
       <x:c r="L17" s="36"/>
     </x:row>
     <x:row r="18" spans="2:12">
       <x:c r="B18" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F18" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G18" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H18" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J18" s="30" t="s">
-        <x:v>72</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K18" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L18" s="30" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="6:12">
@@ -1782,19 +1797,19 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="G19" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H19" s="6" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="J19" s="6" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="K19" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L19" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:12">
@@ -1804,137 +1819,149 @@
       <x:c r="C20" s="36"/>
       <x:c r="D20" s="36"/>
       <x:c r="F20" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G20" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H20" s="6" t="s">
-        <x:v>147</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J20" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K20" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L20" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:12">
       <x:c r="B21" s="30" t="s">
-        <x:v>72</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C21" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D21" s="30" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F21" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G21" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H21" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J21" s="6" t="s">
-        <x:v>114</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K21" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L21" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:12">
       <x:c r="B22" s="4" t="s">
-        <x:v>108</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="J22" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K22" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L22" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:8">
       <x:c r="B23" s="4" t="s">
-        <x:v>131</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F23" s="36" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G23" s="36"/>
       <x:c r="H23" s="36"/>
     </x:row>
     <x:row r="24" spans="2:8">
       <x:c r="B24" s="4" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C24" s="4" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D24" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F24" s="30" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G24" s="30" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H24" s="30" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:8">
+      <x:c r="B25" s="4" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C25" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D25" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F25" s="4" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G25" s="4" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C24" s="4" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D24" s="4" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F24" s="30" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="G24" s="30" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H24" s="30" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="6:8">
-      <x:c r="F25" s="4" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="G25" s="4" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="H25" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="6:8">
       <x:c r="F26" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G26" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H26" s="6" t="s">
-        <x:v>152</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="6:8">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="2:8">
+      <x:c r="B27" s="46"/>
+      <x:c r="C27" s="46"/>
+      <x:c r="D27" s="46"/>
       <x:c r="F27" s="4" t="s">
-        <x:v>108</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G27" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H27" s="4" t="s">
         <x:v>150</x:v>
@@ -1977,14 +2004,14 @@
   <x:sheetData>
     <x:row r="3" spans="2:16" ht="30" customHeight="1">
       <x:c r="B3" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C3" s="5"/>
       <x:c r="D3" s="5"/>
       <x:c r="E3" s="5"/>
       <x:c r="F3" s="5"/>
       <x:c r="G3" s="38" t="s">
-        <x:v>71</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H3" s="38"/>
       <x:c r="I3" s="5"/>
@@ -1995,60 +2022,60 @@
       <x:c r="N3" s="5"/>
       <x:c r="O3" s="5"/>
       <x:c r="P3" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:16">
       <x:c r="B4" s="5"/>
       <x:c r="C4" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D4" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G4" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H4" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I4" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J4" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K4" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L4" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M4" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N4" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O4" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="P4" s="8" t="s">
-        <x:v>15</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:17">
       <x:c r="B5" s="5" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C5" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D5" s="5"/>
       <x:c r="E5" s="5"/>
@@ -2067,16 +2094,16 @@
     </x:row>
     <x:row r="6" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B6" s="15" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C6" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D6" s="20"/>
       <x:c r="E6" s="17"/>
       <x:c r="F6" s="17"/>
       <x:c r="G6" s="39" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H6" s="40"/>
       <x:c r="I6" s="17"/>
@@ -2087,16 +2114,16 @@
       <x:c r="N6" s="17"/>
       <x:c r="O6" s="17"/>
       <x:c r="P6" s="41" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q6" s="1"/>
     </x:row>
     <x:row r="7" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B7" s="5" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D7" s="13"/>
       <x:c r="E7" s="13"/>
@@ -2115,10 +2142,10 @@
     </x:row>
     <x:row r="8" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B8" s="5" t="s">
-        <x:v>127</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D8" s="12"/>
       <x:c r="E8" s="12"/>
@@ -2137,10 +2164,10 @@
     </x:row>
     <x:row r="9" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B9" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="21" t="s">
-        <x:v>87</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D9" s="11"/>
       <x:c r="E9" s="11"/>
@@ -2159,10 +2186,10 @@
     </x:row>
     <x:row r="10" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B10" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D10" s="12"/>
       <x:c r="E10" s="12"/>
@@ -2181,10 +2208,10 @@
     </x:row>
     <x:row r="11" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B11" s="5" t="s">
-        <x:v>128</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C11" s="16" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D11" s="17"/>
       <x:c r="E11" s="14"/>
@@ -2203,10 +2230,10 @@
     </x:row>
     <x:row r="12" spans="2:17" ht="45.950000000000003" customHeight="1">
       <x:c r="B12" s="5" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C12" s="31" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D12" s="32"/>
       <x:c r="E12" s="32"/>
@@ -2225,10 +2252,10 @@
     </x:row>
     <x:row r="13" spans="2:16" s="1" customFormat="1" ht="45.950000000000003" customHeight="1">
       <x:c r="B13" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C13" s="16" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D13" s="17"/>
       <x:c r="E13" s="33"/>
@@ -2246,10 +2273,10 @@
     </x:row>
     <x:row r="14" spans="2:16" s="1" customFormat="1" ht="45.950000000000003" customHeight="1">
       <x:c r="B14" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C14" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D14" s="17"/>
       <x:c r="E14" s="17"/>
@@ -2267,10 +2294,10 @@
     </x:row>
     <x:row r="15" spans="2:16" s="1" customFormat="1" ht="45.950000000000003" customHeight="1">
       <x:c r="B15" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C15" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D15" s="17"/>
       <x:c r="E15" s="17"/>
@@ -2288,10 +2315,10 @@
     </x:row>
     <x:row r="16" spans="2:16" s="1" customFormat="1" ht="45.950000000000003" customHeight="1">
       <x:c r="B16" s="15" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C16" s="16" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D16" s="17"/>
       <x:c r="E16" s="17"/>
@@ -2341,110 +2368,110 @@
     <x:row r="3" ht="2.25" customHeight="1"/>
     <x:row r="4" spans="2:3" ht="25.5" customHeight="1">
       <x:c r="B4" s="44" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C4" s="44"/>
     </x:row>
     <x:row r="5" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B5" s="25" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C5" s="25" t="s">
-        <x:v>46</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B6" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C6" s="28" t="s">
-        <x:v>56</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B7" s="27" t="s">
-        <x:v>145</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C7" s="28" t="s">
-        <x:v>35</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B8" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C8" s="23" t="s">
-        <x:v>79</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B9" s="24" t="s">
-        <x:v>21</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C9" s="23" t="s">
-        <x:v>85</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B10" s="24" t="s">
-        <x:v>67</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C10" s="23" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B11" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C11" s="23" t="s">
-        <x:v>63</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:3" ht="25.5" customHeight="1">
       <x:c r="B13" s="45" t="s">
-        <x:v>139</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C13" s="45"/>
     </x:row>
     <x:row r="14" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B14" s="26" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C14" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B15" s="24" t="s">
-        <x:v>125</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B16" s="24" t="s">
-        <x:v>20</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>133</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B17" s="24" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:3" ht="24.949999999999999" customHeight="1">
       <x:c r="B18" s="24" t="s">
-        <x:v>43</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
